--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689E9ACA-9DE2-43A2-B663-28EAE3573647}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF100EF5-5DB1-4F1B-A56B-89CF01A87483}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="3240" windowWidth="17220" windowHeight="15555" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
     <sheet name="IWDA" sheetId="1" r:id="rId2"/>
     <sheet name="EMIM" sheetId="4" r:id="rId3"/>
     <sheet name="IEMS" sheetId="2" r:id="rId4"/>
-    <sheet name="IUSN" sheetId="3" r:id="rId5"/>
+    <sheet name="WSML" sheetId="3" r:id="rId5"/>
     <sheet name="IEMM" sheetId="9" r:id="rId6"/>
     <sheet name="IEMA" sheetId="11" r:id="rId7"/>
     <sheet name="IWVL" sheetId="12" r:id="rId8"/>
@@ -661,10 +661,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2186,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4267,7 +4267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319A48F-C74C-4C2A-9714-F1A50A94B19B}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6539,8 +6541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDDF6C-AD69-4170-ABB3-6C33D8EBF3CF}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF100EF5-5DB1-4F1B-A56B-89CF01A87483}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86C7DD9-7581-420E-83E8-3F5F02F71A00}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -589,7 +589,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,12 +659,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2186,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85662431-B8A3-40F8-9BF4-EC97DECEFC14}">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
@@ -3627,7 +3628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EB2121-1E5C-40E6-84C9-729FC25AD7CB}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6539,10 +6542,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDDF6C-AD69-4170-ABB3-6C33D8EBF3CF}">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,7 +6554,7 @@
     <col min="2" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>69203</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -6656,16 +6659,16 @@
         <v>2.0206445282783161E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -6689,7 +6692,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -6713,7 +6716,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -6746,16 +6749,26 @@
         <v>0.25029839588960456</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="59">
+        <v>0.86</v>
+      </c>
+      <c r="M12" s="7">
+        <f>L12*I15</f>
+        <v>0.12865363003929459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -6778,8 +6791,16 @@
         <v>10424</v>
       </c>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="59">
+        <f>L11-L12</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13" s="7">
+        <f>L13*I5</f>
+        <v>2.8289023395896428E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -6802,8 +6823,12 @@
         <v>1562</v>
       </c>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M14" s="7">
+        <f>SUM(M12:M13)</f>
+        <v>0.13148253237888424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -6836,7 +6861,7 @@
         <v>0.1495972442317379</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">

--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86C7DD9-7581-420E-83E8-3F5F02F71A00}"/>
+  <xr:revisionPtr revIDLastSave="670" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0457F714-B3FA-4F35-B00E-F3327B418235}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -662,10 +662,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2187,9 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3047,9 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85662431-B8A3-40F8-9BF4-EC97DECEFC14}">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="C12:G12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3628,9 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EB2121-1E5C-40E6-84C9-729FC25AD7CB}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4270,9 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319A48F-C74C-4C2A-9714-F1A50A94B19B}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4704,9 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9A39DF-ECA7-4B8A-BED1-414B316C3BE0}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6544,9 +6534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDDF6C-AD69-4170-ABB3-6C33D8EBF3CF}">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6751,22 +6739,15 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="7"/>
-      <c r="L11" s="59">
-        <v>1</v>
-      </c>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="L12" s="59">
-        <v>0.86</v>
-      </c>
-      <c r="M12" s="7">
-        <f>L12*I15</f>
-        <v>0.12865363003929459</v>
-      </c>
+      <c r="L12" s="59"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6791,14 +6772,8 @@
         <v>10424</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="L13" s="59">
-        <f>L11-L12</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M13" s="7">
-        <f>L13*I5</f>
-        <v>2.8289023395896428E-3</v>
-      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6823,10 +6798,7 @@
         <v>1562</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="M14" s="7">
-        <f>SUM(M12:M13)</f>
-        <v>0.13148253237888424</v>
-      </c>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="670" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0457F714-B3FA-4F35-B00E-F3327B418235}"/>
+  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15C9C780-F289-4E88-9F37-C5CE15B37F1B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -2187,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4264,7 +4264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319A48F-C74C-4C2A-9714-F1A50A94B19B}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4543,15 +4545,15 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <f>B19/B8</f>
         <v>2.4513108614232209E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <f>C19/C8</f>
         <v>5.0291622481442202E-4</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <f>D19/D8</f>
         <v>5.8169628936700966E-4</v>
       </c>

--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15C9C780-F289-4E88-9F37-C5CE15B37F1B}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D719C0-7C67-425E-B006-E262A7360175}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -2185,22 +2185,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:R42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="91.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="91.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -2212,11 +2212,12 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="9"/>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -2228,11 +2229,12 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="18"/>
+      <c r="L3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="19">
         <v>2014</v>
@@ -2255,14 +2257,17 @@
       <c r="H4" s="19">
         <v>2020</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="19">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
@@ -2287,12 +2292,15 @@
       <c r="H5" s="22">
         <v>23478559</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="22">
+        <v>40303449</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -2317,12 +2325,15 @@
       <c r="H6" s="22">
         <v>45197</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="22">
+        <v>62625</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -2347,15 +2358,18 @@
       <c r="H7" s="23">
         <v>2E-3</v>
       </c>
-      <c r="I7" s="28">
-        <f>AVERAGE(B7:H7)</f>
-        <v>2.2714285714285714E-3</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" s="28">
+        <f>AVERAGE(B7:I7)</f>
+        <v>2.2374999999999999E-3</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>862307.69230769237</v>
       </c>
       <c r="C8" s="22">
-        <f t="shared" ref="C8:H8" si="0">C6/C7</f>
+        <f t="shared" ref="C8:I8" si="0">C6/C7</f>
         <v>2675500</v>
       </c>
       <c r="D8" s="22">
@@ -2387,9 +2401,13 @@
         <f t="shared" si="0"/>
         <v>22598500</v>
       </c>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>31312500</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -2398,12 +2416,13 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="K9" s="2" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -2428,12 +2447,15 @@
       <c r="H10" s="22">
         <v>497088</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="K10" s="2" t="s">
+      <c r="I10" s="22">
+        <v>596959</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="L10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2458,9 +2480,12 @@
       <c r="H11" s="22">
         <v>64057</v>
       </c>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="22">
+        <v>73274</v>
+      </c>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
@@ -2492,55 +2517,63 @@
         <f t="shared" si="1"/>
         <v>0.1288645068881164</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="24">
+        <f t="shared" ref="I12" si="2">I11/I10</f>
+        <v>0.12274544817985825</v>
+      </c>
+      <c r="J12" s="28">
         <f>AVERAGE(B12:H12)</f>
         <v>0.11813180456504087</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="29">
-        <f t="shared" ref="B13:H13" si="2">B11/B8</f>
+        <f t="shared" ref="B13:H13" si="3">B11/B8</f>
         <v>2.9339875111507579E-3</v>
       </c>
       <c r="C13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9508503083535789E-3</v>
       </c>
       <c r="D13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2198067632850241E-3</v>
       </c>
       <c r="E13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9423088140932158E-3</v>
       </c>
       <c r="F13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8010171646535285E-3</v>
       </c>
       <c r="G13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.004033077034673E-3</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8345686660619066E-3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="29">
+        <f t="shared" ref="I13" si="4">I11/I8</f>
+        <v>2.3400878243512975E-3</v>
+      </c>
+      <c r="J13" s="28">
         <f>AVERAGE(B13:H13)</f>
         <v>2.9552246149475263E-3</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>97</v>
       </c>
@@ -2553,31 +2586,35 @@
         <v>2.5785460661558589E-2</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" ref="D14:H14" si="3">D10/D8</f>
+        <f t="shared" ref="D14:H14" si="5">D10/D8</f>
         <v>2.7272017837235228E-2</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5526687277606021E-2</v>
       </c>
       <c r="F14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4204853969559851E-2</v>
       </c>
       <c r="G14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5259886841723488E-2</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1996504192756155E-2</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="K14" t="s">
+      <c r="I14" s="29">
+        <f t="shared" ref="I14" si="6">I10/I8</f>
+        <v>1.906455888223553E-2</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="L14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -2586,9 +2623,10 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="22"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
@@ -2613,49 +2651,56 @@
       <c r="H16" s="22">
         <v>6134</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="K16" t="s">
+      <c r="I16" s="22">
+        <v>6429</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="L16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="52">
-        <f t="shared" ref="B17:H17" si="4">B16/B8</f>
+        <f t="shared" ref="B17:I17" si="7">B16/B8</f>
         <v>8.1177520071364855E-6</v>
       </c>
       <c r="C17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3044290786768829E-4</v>
       </c>
       <c r="D17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.759568933481977E-4</v>
       </c>
       <c r="E17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4884792626728109E-4</v>
       </c>
       <c r="F17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5017762985677424E-4</v>
       </c>
       <c r="G17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2264616277382854E-4</v>
       </c>
       <c r="H17" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7143394473084495E-4</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="52">
+        <f t="shared" si="7"/>
+        <v>2.0531736526946108E-4</v>
+      </c>
+      <c r="J17" s="28">
         <f>AVERAGE(B17:H17)</f>
         <v>2.0108903097882158E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2728,12 @@
       <c r="H18" s="50">
         <v>0.1138</v>
       </c>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="50">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2694,9 +2742,10 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="22"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>0</v>
       </c>
@@ -2721,46 +2770,53 @@
       <c r="H20" s="22">
         <v>2989</v>
       </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="22">
+        <v>3539</v>
+      </c>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="25">
-        <f t="shared" ref="B21:H21" si="5">B20/B8</f>
+        <f t="shared" ref="B21:I21" si="8">B20/B8</f>
         <v>7.0856378233719887E-4</v>
       </c>
       <c r="C21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1745468136796859E-4</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0639167595689337E-4</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7953100390830078E-4</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.685800830185857E-4</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5673872044102714E-4</v>
       </c>
       <c r="H21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3226541584618448E-4</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="25">
+        <f t="shared" si="8"/>
+        <v>1.1302195608782435E-4</v>
+      </c>
+      <c r="J21" s="28">
         <f>AVERAGE(B21:H21)</f>
         <v>3.3850362326802273E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2769,9 +2825,10 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="29"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
@@ -2794,9 +2851,10 @@
       <c r="H23" s="29">
         <v>0</v>
       </c>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="29"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2805,15 +2863,16 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="18"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="28">
-        <f>I7+I13-I17+I21</f>
-        <v>5.364067778665299E-3</v>
+        <f>J7+J13-J17+J21</f>
+        <v>5.3301392072367271E-3</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>101</v>
@@ -2824,10 +2883,11 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="K25" s="8"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J25" s="25"/>
+      <c r="L25" s="8"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>44</v>
       </c>
@@ -2844,16 +2904,17 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="K26" s="8"/>
-      <c r="O26" s="54"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="18"/>
+      <c r="L26" s="8"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="28">
         <f>B26-B25</f>
-        <v>-2.497820643795846E-4</v>
+        <v>-2.158534929510127E-4</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -2862,9 +2923,10 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="18"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2873,37 +2935,40 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="18"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="26">
-        <f>H7+I13-H17+H21</f>
+        <f>H7+J13-H17+H21</f>
         <v>4.8160560860628652E-3</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="30">
-        <f>B29-I13</f>
+        <f>B29-J13</f>
         <v>1.8608314711153389E-3</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="34"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2911,13 +2976,14 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="O32" s="4"/>
-      <c r="Q32" s="55"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="P32" s="4"/>
+      <c r="R32" s="55"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2925,9 +2991,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2937,11 +3004,12 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2949,11 +3017,12 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2961,9 +3030,10 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="12"/>
@@ -2973,9 +3043,10 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="12"/>
@@ -2985,9 +3056,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="12"/>
@@ -2997,9 +3069,10 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="12"/>
@@ -3009,9 +3082,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="12"/>
@@ -3021,9 +3095,10 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="12"/>
@@ -3033,11 +3108,12 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4264,7 +4340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319A48F-C74C-4C2A-9714-F1A50A94B19B}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/iShares/iShares-KostenBepaling.xlsx
+++ b/iShares/iShares-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D719C0-7C67-425E-B006-E262A7360175}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37D5B00-DBAE-4E97-A7CE-A1D6DC478E8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="131">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -461,6 +461,39 @@
   </si>
   <si>
     <t>EM</t>
+  </si>
+  <si>
+    <t>Wat zit waar</t>
+  </si>
+  <si>
+    <t>IWDA</t>
+  </si>
+  <si>
+    <t>EMIM</t>
+  </si>
+  <si>
+    <t>IEMS</t>
+  </si>
+  <si>
+    <t>WSML</t>
+  </si>
+  <si>
+    <t>IEMM</t>
+  </si>
+  <si>
+    <t>IEMA</t>
+  </si>
+  <si>
+    <t>IWVL</t>
+  </si>
+  <si>
+    <t>iShares III plc</t>
+  </si>
+  <si>
+    <t>iShares plc</t>
+  </si>
+  <si>
+    <t>iShares IV plc</t>
   </si>
 </sst>
 </file>
@@ -589,7 +622,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +693,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -943,15 +979,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="118.5703125" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -1003,8 +1040,70 @@
         <v>67</v>
       </c>
     </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2187,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
